--- a/server/asset/movies-template.xlsx
+++ b/server/asset/movies-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\happymovie\asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\happymovie\server\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDF8818-9B06-477E-B9BB-F030CB885A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9E897F-954B-43FA-BE46-D691ED3B8B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>movie_name</t>
   </si>
@@ -47,7 +47,24 @@
     <t>have_seen</t>
   </si>
   <si>
-    <t>origin</t>
+    <t>starring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>genre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒂姆·罗宾斯/摩根·弗里曼/鲍勃·冈顿/威廉姆·赛德勒/克兰西·布朗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情/犯罪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -419,43 +436,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="103.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -463,55 +488,61 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/server/asset/movies-template.xlsx
+++ b/server/asset/movies-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\happymovie\server\asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\happymovie\server\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9E897F-954B-43FA-BE46-D691ED3B8B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6C158D-6F6D-4892-B53B-6F1CB20F76B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>movie_name</t>
-  </si>
-  <si>
-    <t>movie_runtime</t>
-  </si>
-  <si>
     <t>肖申克的救赎/TheShawshankRedemption/月黑高飞(港)/刺激1995(台)</t>
   </si>
   <si>
@@ -35,13 +29,6 @@
   </si>
   <si>
     <t>142分钟</t>
-  </si>
-  <si>
-    <t>movie_rating</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>movie_likability</t>
   </si>
   <si>
     <t>have_seen</t>
@@ -64,6 +51,22 @@
   </si>
   <si>
     <t>剧情/犯罪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rating</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>runtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>likability</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +442,7 @@
   <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -456,28 +459,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -485,19 +488,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
       </c>
       <c r="G2">
         <v>1</v>
